--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Model Sub-Class.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Model Sub-Class.xlsx
@@ -62,10 +62,16 @@
     <t>Sub-Class_Predictive model_1</t>
   </si>
   <si>
-    <t>Pharmacokinetics models</t>
+    <t>Growth boundary model</t>
   </si>
   <si>
-    <t>Sub-Class_EM_1</t>
+    <t>Sub-Class_Predictive model_2</t>
+  </si>
+  <si>
+    <t>Epidemiological models</t>
+  </si>
+  <si>
+    <t>Sub-Class_EM_4</t>
   </si>
   <si>
     <t>ANIMAL FARM</t>
@@ -74,10 +80,49 @@
     <t>Sub-Class_Process model_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregnant </t>
+    <t>Children</t>
   </si>
   <si>
-    <t>Sub-Class_DR_1</t>
+    <t>Sub-Class_DR_4</t>
+  </si>
+  <si>
+    <t>Cost per illness</t>
+  </si>
+  <si>
+    <t>Sub-Class_HM_3</t>
+  </si>
+  <si>
+    <t>QCRA</t>
+  </si>
+  <si>
+    <t>Sub-Class_QRA_2</t>
+  </si>
+  <si>
+    <t>Quantitative chemical risk assessment model</t>
+  </si>
+  <si>
+    <t>Inactivation</t>
+  </si>
+  <si>
+    <t>Sub-Class_Predictive model_3</t>
+  </si>
+  <si>
+    <t>Fluid dynamic models</t>
+  </si>
+  <si>
+    <t>Sub-Class_EM_5</t>
+  </si>
+  <si>
+    <t>CONSUMER</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_74</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>Sub-Class_DR_3</t>
   </si>
   <si>
     <t xml:space="preserve">DALY </t>
@@ -98,16 +143,16 @@
     <t>Quantitative microbial risk assessment model</t>
   </si>
   <si>
-    <t>Growth boundary model</t>
+    <t>Maximum population density (MPD)</t>
   </si>
   <si>
-    <t>Sub-Class_Predictive model_2</t>
+    <t>Sub-Class_Predictive model_4</t>
   </si>
   <si>
-    <t>Time-temperature models</t>
+    <t xml:space="preserve">Other  </t>
   </si>
   <si>
-    <t>Sub-Class_EM_2</t>
+    <t>Sub-Class_EM_6</t>
   </si>
   <si>
     <t>CROP FARM</t>
@@ -131,19 +176,31 @@
     <t>Quality-adjusted life year</t>
   </si>
   <si>
-    <t>QCRA</t>
+    <t>Metabolite formation</t>
   </si>
   <si>
-    <t>Sub-Class_QRA_2</t>
+    <t>Sub-Class_Predictive model_5</t>
   </si>
   <si>
-    <t>Quantitative chemical risk assessment model</t>
+    <t>Pharmacokinetics models</t>
   </si>
   <si>
-    <t>Inactivation</t>
+    <t>Sub-Class_EM_1</t>
   </si>
   <si>
-    <t>Sub-Class_Predictive model_3</t>
+    <t>FISHERY</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_3</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sub-Class_DR_5</t>
+  </si>
+  <si>
+    <t>Sub-Class_Predictive model_12</t>
   </si>
   <si>
     <t>Temporary models</t>
@@ -152,34 +209,40 @@
     <t>Sub-Class_EM_3</t>
   </si>
   <si>
-    <t>FISHERY</t>
+    <t>FOOD SERVICE</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_3</t>
+    <t>Sub-Class_Process model_75</t>
   </si>
   <si>
-    <t>Elderly</t>
+    <t xml:space="preserve">Pregnant </t>
   </si>
   <si>
-    <t>Sub-Class_DR_3</t>
+    <t>Sub-Class_DR_1</t>
   </si>
   <si>
-    <t>Cost per illness</t>
+    <t>Primary</t>
   </si>
   <si>
-    <t>Sub-Class_HM_3</t>
+    <t>Sub-Class_Predictive model_9</t>
   </si>
   <si>
-    <t>Maximum population density (MPD)</t>
+    <t>Time-temperature models</t>
   </si>
   <si>
-    <t>Sub-Class_Predictive model_4</t>
+    <t>Sub-Class_EM_2</t>
   </si>
   <si>
-    <t>Epidemiological models</t>
+    <t>OTHER</t>
   </si>
   <si>
-    <t>Sub-Class_EM_4</t>
+    <t>Sub-Class_Process model_76</t>
+  </si>
+  <si>
+    <t>Primary-secondary</t>
+  </si>
+  <si>
+    <t>Sub-Class_Predictive model_11</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER</t>
@@ -188,34 +251,16 @@
     <t>Sub-Class_Process model_4</t>
   </si>
   <si>
-    <t>Children</t>
+    <t>Secondary</t>
   </si>
   <si>
-    <t>Sub-Class_DR_4</t>
+    <t>Sub-Class_Predictive model_10</t>
   </si>
   <si>
-    <t>Metabolite formation</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Canning</t>
   </si>
   <si>
-    <t>Sub-Class_Predictive model_5</t>
-  </si>
-  <si>
-    <t>Fluid dynamic models</t>
-  </si>
-  <si>
-    <t>Sub-Class_EM_5</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Processing</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_5</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Sub-Class_DR_5</t>
+    <t>Sub-Class_Process model_25</t>
   </si>
   <si>
     <t>Spoilage</t>
@@ -224,16 +269,10 @@
     <t>Sub-Class_Predictive model_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Other  </t>
+    <t>PROCESSING CENTER-SLAUGHTER: Churning</t>
   </si>
   <si>
-    <t>Sub-Class_EM_6</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Peeling (inedible peel)</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_6</t>
+    <t>Sub-Class_Process model_39</t>
   </si>
   <si>
     <t>Survival</t>
@@ -242,10 +281,10 @@
     <t>Sub-Class_Predictive model_7</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Peeling (edible peel)</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Concentration</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_7</t>
+    <t>Sub-Class_Process model_41</t>
   </si>
   <si>
     <t>Transfer</t>
@@ -254,16 +293,136 @@
     <t>Sub-Class_Predictive model_8</t>
   </si>
   <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Cooking</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_32</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Cooking in air (Baking)</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_35</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Cooking in oil (Frying)</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_34</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Cooking in water</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_33</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Crushing</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_51</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Decortication</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_42</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Dehydration</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_36</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Desugaring</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_52</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Extrusion</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_43</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Fermentation</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_37</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Flaking</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_44</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Freezing</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_58</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Heating</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_45</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Hydrogenation</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_46</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Hydrolysis</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_47</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Infusion-extractions</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_24</t>
+  </si>
+  <si>
     <t>PROCESSING CENTER-SLAUGHTER: Juicing</t>
   </si>
   <si>
     <t>Sub-Class_Process model_8</t>
   </si>
   <si>
-    <t>Primary</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Milk pasteurisation</t>
   </si>
   <si>
-    <t>Sub-Class_Predictive model_9</t>
+    <t>Sub-Class_Process model_55</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Milling</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_15</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Milling - bran production</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_18</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Milling - refined flour</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_17</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Milling - unprocessed flour</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_16</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER: Oil production</t>
@@ -272,37 +431,10 @@
     <t>Sub-Class_Process model_9</t>
   </si>
   <si>
-    <t>Secondary</t>
-  </si>
-  <si>
-    <t>Sub-Class_Predictive model_10</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Oil production - Virgin oil after cold press</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_10</t>
-  </si>
-  <si>
-    <t>Primary-secondary</t>
-  </si>
-  <si>
-    <t>Sub-Class_Predictive model_11</t>
-  </si>
-  <si>
     <t>PROCESSING CENTER-SLAUGHTER: Oil production - Cold press</t>
   </si>
   <si>
     <t>Sub-Class_Process model_11</t>
-  </si>
-  <si>
-    <t>Sub-Class_Predictive model_12</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Oil production - Warm press</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_12</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER: Oil production - refined oils</t>
@@ -317,28 +449,58 @@
     <t>Sub-Class_Process model_14</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Milling</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Oil production - Virgin oil after cold press</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_15</t>
+    <t>Sub-Class_Process model_10</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Milling - unprocessed flour</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Oil production - Warm press</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_16</t>
+    <t>Sub-Class_Process model_12</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Milling - refined flour</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Other</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_17</t>
+    <t>Sub-Class_Process model_60</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Milling - bran production</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Packaging</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_18</t>
+    <t>Sub-Class_Process model_59</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Pasteurisation</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_56</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Peeling (edible peel)</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_7</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Peeling (inedible peel)</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_6</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Pelleting</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_48</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Pickling</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_38</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER: Polishing</t>
@@ -347,10 +509,52 @@
     <t>Sub-Class_Process model_19</t>
   </si>
   <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Pregelatinisation</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_49</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Preserving</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_26</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Pressing</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_54</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Processing</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_5</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Production of alcoholic beverages</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_27</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Refining</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_50</t>
+  </si>
+  <si>
     <t>PROCESSING CENTER-SLAUGHTER: Silage-Fodder production</t>
   </si>
   <si>
     <t>Sub-Class_Process model_20</t>
+  </si>
+  <si>
+    <t>PROCESSING CENTER-SLAUGHTER: Smoking</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_40</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER: Sugar production</t>
@@ -371,40 +575,22 @@
     <t>Sub-Class_Process model_23</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Infusion-extractions</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Unknown</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_24</t>
+    <t>Sub-Class_Process model_57</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Canning</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Wet-milling</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_25</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Preserving</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_26</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Production of alcoholic beverages</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_27</t>
+    <t>Sub-Class_Process model_53</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER: Wine production</t>
   </si>
   <si>
     <t>Sub-Class_Process model_28</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Wine production - white wine</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_29</t>
   </si>
   <si>
     <t>PROCESSING CENTER-SLAUGHTER: Wine production - red wine cold process</t>
@@ -419,178 +605,16 @@
     <t>Sub-Class_Process model_31</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Cooking</t>
+    <t>PROCESSING CENTER-SLAUGHTER: Wine production - white wine</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_32</t>
+    <t>Sub-Class_Process model_29</t>
   </si>
   <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Cooking in water</t>
+    <t>RETAIL</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_33</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Cooking in oil (Frying)</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_34</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Cooking in air (Baking)</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_35</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Dehydration</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_36</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Fermentation</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_37</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Pickling</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_38</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Churning</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_39</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Smoking</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_40</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Concentration</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_41</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Decortication</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_42</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Extrusion</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_43</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Flaking</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_44</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Heating</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_45</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Hydrogenation</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_46</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Hydrolysis</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_47</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Pelleting</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_48</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Pregelatinisation</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_49</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Refining</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_50</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Crushing</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_51</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Desugaring</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_52</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Wet-milling</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_53</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Pressing</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_54</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Milk pasteurisation</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_55</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Pasteurisation</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_56</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Unknown</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_57</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Freezing</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_58</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Packaging</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_59</t>
-  </si>
-  <si>
-    <t>PROCESSING CENTER-SLAUGHTER: Other</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_60</t>
+    <t>Sub-Class_Process model_73</t>
   </si>
   <si>
     <t>STORAGE</t>
@@ -599,13 +623,13 @@
     <t>Sub-Class_Process model_61</t>
   </si>
   <si>
-    <t>STORAGE: frozen</t>
+    <t>STORAGE: ambient temperature</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_62</t>
+    <t>Sub-Class_Process model_66</t>
   </si>
   <si>
-    <t>Stored at -20°C (4°F).</t>
+    <t>Stored at the surrounding temperature or normal storage conditions, which means storage in a dry, clean, well ventilated area at room temperatures between 15° to 25°C (59°-77°F) or up to 30°C, depending on climatic conditions.</t>
   </si>
   <si>
     <t>STORAGE: at 2°-8°C</t>
@@ -626,6 +650,15 @@
     <t>Stored between 8°-15°C (45°-59°F).</t>
   </si>
   <si>
+    <t>STORAGE: frozen</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_62</t>
+  </si>
+  <si>
+    <t>Stored at -20°C (4°F).</t>
+  </si>
+  <si>
     <t>STORAGE: room temperature</t>
   </si>
   <si>
@@ -635,28 +668,19 @@
     <t>Stored at 15°-25°C (59°-77°F).</t>
   </si>
   <si>
-    <t>STORAGE: ambient temperature</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_66</t>
-  </si>
-  <si>
-    <t>Stored at the surrounding temperature or normal storage conditions, which means storage in a dry, clean, well ventilated area at room temperatures between 15° to 25°C (59°-77°F) or up to 30°C, depending on climatic conditions.</t>
-  </si>
-  <si>
     <t>TRANSPORT-DISTRIBUTION</t>
   </si>
   <si>
     <t>Sub-Class_Process model_67</t>
   </si>
   <si>
-    <t>TRANSPORT-DISTRIBUTION: frozen</t>
+    <t>TRANSPORT-DISTRIBUTION: ambient temperature</t>
   </si>
   <si>
-    <t>Sub-Class_Process model_68</t>
+    <t>Sub-Class_Process model_72</t>
   </si>
   <si>
-    <t>Transported at -20°C (4°F).</t>
+    <t>Transported at the surrounding temperature or normal storage conditions, which means storage in a dry, clean, well ventilated vehicle at room temperatures between 15° to 25°C (59°-77°F) or up to 30°C, depending on climatic conditions.</t>
   </si>
   <si>
     <t>TRANSPORT-DISTRIBUTION: at 2°-8°C</t>
@@ -677,6 +701,15 @@
     <t>Transported between 8°-15°C (45°-59°F).</t>
   </si>
   <si>
+    <t>TRANSPORT-DISTRIBUTION: frozen</t>
+  </si>
+  <si>
+    <t>Sub-Class_Process model_68</t>
+  </si>
+  <si>
+    <t>Transported at -20°C (4°F).</t>
+  </si>
+  <si>
     <t>TRANSPORT-DISTRIBUTION: room temperature</t>
   </si>
   <si>
@@ -684,39 +717,6 @@
   </si>
   <si>
     <t>Transported at 15°-25°C (59°-77°F).</t>
-  </si>
-  <si>
-    <t>TRANSPORT-DISTRIBUTION: ambient temperature</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_72</t>
-  </si>
-  <si>
-    <t>Transported at the surrounding temperature or normal storage conditions, which means storage in a dry, clean, well ventilated vehicle at room temperatures between 15° to 25°C (59°-77°F) or up to 30°C, depending on climatic conditions.</t>
-  </si>
-  <si>
-    <t>RETAIL</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_73</t>
-  </si>
-  <si>
-    <t>CONSUMER</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_74</t>
-  </si>
-  <si>
-    <t>FOOD SERVICE</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_75</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Sub-Class_Process model_76</t>
   </si>
 </sst>
 </file>
@@ -840,10 +840,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -934,26 +934,26 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -964,10 +964,10 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -975,23 +975,21 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
-      <c r="AI3" t="s">
-        <v>24</v>
-      </c>
+      <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -999,26 +997,26 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -1029,10 +1027,10 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -1040,23 +1038,23 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ4"/>
       <c r="AK4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -1064,26 +1062,26 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -1094,10 +1092,10 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA5"/>
       <c r="AB5"/>
@@ -1105,12 +1103,14 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
-      <c r="AI5"/>
+      <c r="AI5" t="s">
+        <v>53</v>
+      </c>
       <c r="AJ5"/>
     </row>
     <row r="6">
@@ -1118,26 +1118,26 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -1148,10 +1148,10 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -1170,23 +1170,23 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -1197,10 +1197,10 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
@@ -1216,26 +1216,26 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -1260,10 +1260,10 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1272,10 +1272,10 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O9"/>
       <c r="P9"/>
@@ -1300,10 +1300,10 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1312,10 +1312,10 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -1340,10 +1340,10 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1352,10 +1352,10 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -1380,10 +1380,10 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1392,10 +1392,10 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -1420,10 +1420,10 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1432,10 +1432,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -1460,10 +1460,10 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -3282,9 +3282,7 @@
       <c r="N64" t="s">
         <v>196</v>
       </c>
-      <c r="O64" t="s">
-        <v>197</v>
-      </c>
+      <c r="O64"/>
       <c r="P64"/>
       <c r="R64"/>
       <c r="S64"/>
@@ -3315,14 +3313,12 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="s">
+        <v>197</v>
+      </c>
+      <c r="N65" t="s">
         <v>198</v>
       </c>
-      <c r="N65" t="s">
-        <v>199</v>
-      </c>
-      <c r="O65" t="s">
-        <v>200</v>
-      </c>
+      <c r="O65"/>
       <c r="P65"/>
       <c r="R65"/>
       <c r="S65"/>
@@ -3353,14 +3349,12 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
-      <c r="O66" t="s">
-        <v>203</v>
-      </c>
+      <c r="O66"/>
       <c r="P66"/>
       <c r="R66"/>
       <c r="S66"/>
@@ -3391,14 +3385,12 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
-      <c r="O67" t="s">
-        <v>206</v>
-      </c>
+      <c r="O67"/>
       <c r="P67"/>
       <c r="R67"/>
       <c r="S67"/>
@@ -3429,13 +3421,13 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P68"/>
       <c r="R68"/>
@@ -3468,12 +3460,14 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N69" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
-      <c r="O69"/>
+      <c r="O69" t="s">
+        <v>208</v>
+      </c>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
@@ -3512,13 +3506,13 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P70"/>
       <c r="R70"/>
@@ -3550,13 +3544,13 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N71" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O71" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P71"/>
       <c r="R71"/>
@@ -3588,13 +3582,13 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O72" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P72"/>
       <c r="R72"/>
@@ -3626,14 +3620,12 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
-      <c r="O73" t="s">
-        <v>223</v>
-      </c>
+      <c r="O73"/>
       <c r="P73"/>
       <c r="R73"/>
       <c r="S73"/>
@@ -3664,13 +3656,13 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O74" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P74"/>
       <c r="R74"/>
@@ -3702,12 +3694,14 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N75" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
-      <c r="O75"/>
+      <c r="O75" t="s">
+        <v>225</v>
+      </c>
       <c r="P75"/>
       <c r="R75"/>
       <c r="S75"/>
@@ -3738,12 +3732,14 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
-      <c r="O76"/>
+      <c r="O76" t="s">
+        <v>228</v>
+      </c>
       <c r="P76"/>
       <c r="R76"/>
       <c r="S76"/>
@@ -3774,12 +3770,14 @@
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77" t="s">
+        <v>229</v>
+      </c>
+      <c r="N77" t="s">
+        <v>230</v>
+      </c>
+      <c r="O77" t="s">
         <v>231</v>
       </c>
-      <c r="N77" t="s">
-        <v>232</v>
-      </c>
-      <c r="O77"/>
       <c r="P77"/>
       <c r="R77"/>
       <c r="S77"/>
@@ -3810,12 +3808,14 @@
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78" t="s">
+        <v>232</v>
+      </c>
+      <c r="N78" t="s">
         <v>233</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>234</v>
       </c>
-      <c r="O78"/>
       <c r="P78"/>
       <c r="R78"/>
       <c r="S78"/>
